--- a/story/Main Story and Others 主线剧情等/Operator Record 干员密录/story_bldsk_1_1.xlsx
+++ b/story/Main Story and Others 主线剧情等/Operator Record 干员密录/story_bldsk_1_1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="696" uniqueCount="339">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="696" uniqueCount="673">
   <si>
     <t>zh_CN</t>
   </si>
@@ -700,6 +700,1342 @@
 </t>
   </si>
   <si>
+    <t xml:space="preserve">p.m. 10:32 天気/小雨
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">チェルノボーグ事件後の廃墟
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="勇敢な子供"]  おーい……おーい！　誰かいないかー！？
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="勇敢な子供"]  ……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="勇敢な子供"]  空が暗くなってきた……学校からケーキ屋さん、ロレーナママの仕立て屋って順番にたどってきたけど……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="勇敢な子供"]  もう少し先へ進めば、この街区を抜けるはずだよな？
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="勇敢な子供"]  クソッ！　道がどんどんぐちゃぐちゃになってる。全部あのマスクをした頭のおかしい奴らのせいだ。一瞬で何もかもが変わっちまった。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="勇敢な子供"]  ユーリ――ユーリ！　どこにいるんだ？
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="勇敢な子供"]  さっきまで一緒だったのに……俺は水を探しにちょっと離れただけなのに、どこ行ったんだよ！
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="勇敢な子供"]  ユーリは一番小さいし、怪我もひどい。一人じゃどこにも行けるはずがない……そうだ、あいつの傷からはまだ血が出ていた。その匂いをたどれば……ううっ、どこもかしこも血の匂いがする。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="勇敢な子供"]  おえっ！　生臭い……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="勇敢な子供"]  ダメだ、吐いちゃダメだ……せっかくオレグ兄ちゃんが、頑張って見つけてきてくれた食料なんだから。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="勇敢な子供"]  ユーリ――
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="？？？"]  うぅ……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="勇敢な子供"]  い、今のは唸り声？　どこだ、壁の向こう側か？　……小動物？　いや、ありえない。俺たち以外の生き物はみんなとっくに街の外へ逃げたはずだ。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="？？？"]  うう……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="勇敢な子供"]  またなんか聴こえた！　風の音じゃなさそうだし、まさか……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="勇敢な子供"]  ユーリ？　ユーリなのか？
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="勇敢な子供"]  ……聴こえなくなった。遠すぎるからか？　この壁の向こうは……デパートの旧倉庫？
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="勇敢な子供"]  この倉庫はずっと空っぽだったはずだ……前にオレグ兄ちゃんが、内緒で忍び込もうって誘ってきたっけな。大人たちは、近づいちゃダメだって言ってたけど。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="勇敢な子供"]  ユーリ一人じゃこんなとこに来るはずないよな？　でも万一ってことも…………クソッ！　隙間からじゃ暗くて何も見えない。やっぱり入らなきゃダメか。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="勇敢な子供"]  中はもっと暗いな……うわっ、顔に何かついた！　なんだコレ？　外から吹き込んだ雨？　違う、ベタベタする……おえっ、生臭い。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="勇敢な子供"]  そうだ……思い出した……学校で女子たちがこの倉庫には変なものがいるって噂してたな。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="勇敢な子供"]  ……いや、あんなの嘘だ、嘘に決まってる。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="勇敢な子供"]  でも……ここ数日でおかしなものをたくさん見てきたし……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="勇敢な子供"]  ダメだダメだ。今はそんなこと考えてる場合じゃないぞアントン。怖がるな。お前はユーリを探さないといけないんだ。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="？？？"]  うぅ……うっ……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="勇敢な子供"]  泣き声だ！　今度はハッキリ聴こえた！　向こうで誰か泣いてる。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="勇敢な子供"]  ユーリ、泣いてるのはお前か？
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="怖がりな子供"]  アントン……アントンなの？
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="勇敢な子供"]  そう、俺だよ！　迎えに来たぞ。怖がらなくていい、すぐにそっちまで行くからな。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="怖がりな子供"]  アントン……助けて……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="勇敢な子供"]  頑張れ、もうすぐだから……でも一体何があったんだ？　どうして一人でこんな遠くまで来てるんだ？
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="勇敢な子供"]  お前足……足を怪我してたんじゃなかったのか？
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="怖がりな子供"]  うう……ば、化け物がいた……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="勇敢な子供"]  化け物？　何をバカなこと言ってるんだ。お前、熱でもあるのか？
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="怖がりな子供"]  化け物が……僕を捕まえて来たんだ……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="勇敢な子供"]  お前が見た化け物って、どんな姿だった？
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="怖がりな子供"]  は……はっきりとは見えなかったけど……く、黒い爪があった気がする……それと目が血みたいに赤かったんだ！　僕のことをじーっと見て、それで怖くなって……後のことは何も覚えてない。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="勇敢な子供"]  黒い爪に、赤い目？　どこかで聞いたことあるような気が――
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="勇敢な子供"]  そうだ、あれだ！　学校でリナが言ってたお化けの話。あれじゃないか？
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="怖がりな子供"]  うん……リナが……リナが言ってたよ。夜眠らない子供がいると、枕元に化け物がやってくるって。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="怖がりな子供"]  その化け物は赤い目でじーっと見つめてきて……もしそいつと目を合わせてしまったら、魂を吸い取られちゃうんだ。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="怖がりな子供"]  それで、操り人形みたいになってベッドから降りて、化け物の後ろについて家を出て、街を歩いて、そいつの巣までついて行って……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="怖がりな子供"]  そこで、そいつに吊るされるんだ……家で干してるソーセージみたいに、軒先にぶら下げられるんだ……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="怖がりな子供"]  化け物はお腹が空いたら……気まぐれに吊り下げた子供の体から血をじゅるじゅる吸って、飲み干しちゃうんだ！
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="怖がりな子供"]  ううっ……アントン、もしかしたら僕も……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="勇敢な子供"]  ……自分で自分を怖がらせてどうする。そんなの大人の作り話だ。俺たちを早く寝かせるためについた嘘だよ……そうに決まってる！
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="怖がりな子供"]  ほ、本当に？
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="勇敢な子供"]  だって考えてもみろ、お前は今、吊るされてるってのか？
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="怖がりな子供"]  僕……何かに足をつかまれたまま……高い所にいるよ……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="勇敢な子供"]  ……えっ！？
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="怖がりな子供"]  てことは……リナが言ったのは全部本当なのかな？
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="怖がりな子供"]  ううっ……アントン……僕、血を飲み干されるなんてやだよ……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="勇敢な子供"]  大丈夫だ！　もうすぐそっちに着く。すぐだからな、その化け……そいつが何だろうと、戻って来る前に、俺がお前を背負って帰るから！
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="怖がりな子供"]  うん……いや、ダメだ……アントン、来ちゃダメ、早く逃げて！
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="勇敢な子供"]  お前の姿が見えたぞ、ユーリ――
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="勇敢な子供"]  なんだこれは！？
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Subtitle(text="闇夜を往く悪夢。", x=300, y=370, alignment="center", size=24, delay=0.04, width=700)]
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Subtitle(text="子供を捕らえ、血を飲み干す化け物。", x=300, y=550, alignment="center", size=24, delay=0.04, width=700)]
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Subtitle(text="そいつらの体には血の匂いがまとわりつく。", x=300, y=450, alignment="center", size=24, delay=0.04, width=700)]
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Subtitle(text="そいつらの目は血のように赤い。", x=300, y=400, alignment="center", size=24, delay=0.04, width=700)]
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="勇敢な子供"]  あああ――
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="？？？"]  捕まえたぞ。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="勇敢な子供"]  来るな……やめろ！　ユ……ユーリを傷つけたら許さないぞ！
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="？？？"]  傷つけるだと？　おい小童、妾が何をすると思っているのだ。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="勇敢な子供"]  血を吸おうとしてるんだろ、この吸血モンスター！
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="？？？"]  ふむ、そう呼ばれるのは久方ぶりだ。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="？？？"]  いかにもいかにも、妾はブラッドブルードであるぞ。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="？？？"]  ほう、見た目は弱々しいが、反応はそこまで鈍くないようだな？
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="？？？"]  だが、背中に隠し持っておるレンガを投げつけても妾は倒せぬぞ。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="？？？"]  妾はブラッドブルードだと言ったであろう！　ブラッドブルードはとてつもなく素速く、力の強さもサルカズの中で一、二を争う。それにほれ……この歯が見えるか？
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="？？？"]  妾の歯は瘤獣の首を楽に引き裂けるのだぞ。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="？？？"]  抵抗を諦めたか。賢明な判断だな。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="勇敢な子供"]  なあ、ユーリは見逃してやってくれ。こいつは怪我してる。血もたくさん流したし、俺の方が血が多く残ってる。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="勇敢な子供"]  吊るすなら俺にしろ、腹が減ったら俺の血を飲めばいい。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="怖がりな子供"]  ダメだよ、アントン……そんなのダメだ……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="？？？"]  仕方ない、この場所が見つかった以上――
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="勇敢な子供"]  は、早い！　一瞬で手が動けなく――
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="勇敢な子供"]  うっ……痛っ！
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="勇敢な子供"]  こんなの絶対逃げられないじゃないか……これが……噛まれる感覚なの？
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="？？？"]  これで良し。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="勇敢な子供"]  ……これで良し？　お、俺はまだ立ってるよな……めまいも感じないし……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="？？？"]  これしきの吸血では、そなたの体に何の影響もないだろう。副作用もないはずだ。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="勇敢な子供"]  お前は俺を捕まえて……ソーセージにするのか？
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="？？？"]  ソーセージ？　ウルサスの特産品か？　話にはよく聞くが、なかなか美味いらしいじゃないか。今回の任務が終わって、また来る機会があれば味わってみよう。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="？？？"]  コンパス殿？　コンパス殿はまだおるか？
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="前衛オペレーター"]  ゴホンッ……ワルファリン先生、俺はここだ。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ワルファリン"]  妾が死ぬほど忙しいというのに、そなたはずっと隠れてこの茶番を見ておるだけとは……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="前衛オペレーター"]  ハハッ、俺は今来たばかりだよ。それに、ワルファリン先生だって楽しそうだったじゃないか。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="勇敢な子供"]  先……生……？
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="勇敢な子供"]  この吸血モンスターが先生？　医者ってことか？
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ワルファリン"]  見ろ、コンパス殿。この小童、口を開けば妾を吸血モンスターと呼ぶんだぞ？　それを少しばかり脅かしただけで済ませるとは、妾の何と慈悲深いことよ……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="勇敢な子供"]  え……脅かした？
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="前衛オペレーター"]  俺が説明してやろう。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="前衛オペレーター"]  実はな、俺が任務中に君の友達を発見したんだよ。その時の彼は一人で、しかも重傷を負っているようだった。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="前衛オペレーター"]  そんな情況だったから、保護するために連れて帰ってきたんだが、最初から意識がもうろうとしていたし、途中で完全に気を失ってしまって、俺たちが誰かを説明する暇はなかったんだ。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="前衛オペレーター"]  ワルファリン先生は経験豊富で優秀な医者だ。だから安心して君の友達を任せて問題ない。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="前衛オペレーター"]  あ、それとさっき先生が君の血を抜いたのは、単に検査をするためだからな。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="勇敢な子供"]  ……検査？
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ワルファリン"]  よし、結果が出た。ウルサスのスラングでどう言うんだったか？　ふむ……この子は、野生の駄獣みたいに頑丈なのだ。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ワルファリン"]  良かったな、小童。そなたはまだ感染してはいない。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="勇敢な子供"]  感染って……鉱石病のこと？
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ワルファリン"]  そうだ。今のチェルノボーグで、命がある上に感染もしていないなんて、これ以上幸運なことはないぞ？
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ワルファリン"]  そなたの友人のように状況は決して芳しくない場合がほとんどだからな。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="勇敢な子供"]  ユーリはどうなってるの？
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ワルファリン"]  ギリギリ持ち堪えたと言うところか……まぁ、妾がいたからな。もしフォリニックらがこのエリアを受け持っていたならば、恐らく妾ほど見事な対応はできなかっただろう。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="前衛オペレーター"]  ゴホンッ……フォリニック先生が聞いたら、絶対怒り出すぞ。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ワルファリン"]  フン、だからなんだ。学ぶべきことがまだまだ多いのは事実だ。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ワルファリン"]  フォリニックの能力では、妾のように血の匂いの変化で、源石結晶が体内のどの辺りに蓄積しているかを迅速に判断することはできまい？
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ワルファリン"]  このように感染の兆候が表れたばかりの患者に対しては、進行を抑えるためできるだけ素早く患部へ処置を施すほか、すでに体内に侵入した源石が患部で結晶化するのを防ぐ必要もある。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ワルファリン"]  市場に出回ってる抑制剤では、症状を緩和することしかできない。この妾が対応しても、悪化のリスクを相対的な低値に抑えてるにすぎない。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="勇敢な子供"]  ユーリの怪我した足をこんなふうに吊るしてるのも、命を助けるためなの？
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ワルファリン"]  それか？
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ワルファリン"]  まあ……そうだな。この方法はずっと試してみたかったのだ。症状の進行からして、効率は数パーセント上がったようではある……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ワルファリン"]  ただの誤差という可能性もあるが……ふむ、やはりもう何人かで実験が必要だな……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="前衛オペレーター"]  ゴホンッ！　ワルファリン先生、そんなことを言うと、またこの子たちが怖がってしまうじゃないか。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="怖がりな子供"]  うぅ……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="勇敢な子供"]  ……ってことは、あんたら二人は俺たちを助けてくれたんだよな？
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="勇敢な子供"]  ……ありがとう。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ワルファリン"]  礼を言うにはまだ早いぞ。そなたの友人――ユーリといったか？　彼には経過観察が必要だからな。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ワルファリン"]  もし完全に感染者になってしまえば……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ワルファリン"]  まぁ、今はそこまでは言うまい。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="前衛オペレーター"]  アントンくんは、ユーリくんと一緒にここで休んでな。明るくなったら、俺が責任を持って君たちを拠点へ送り届けてやる。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="勇敢な子供"]  拠点？
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="前衛オペレーター"]  ああ、俺たちの拠点だ。俺たちはもうすぐチェルノボーグから撤退するから、その時は君たち二人を、近くのウルサス都市まで護送してやるよ。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="前衛オペレーター"]  ……ユーリくんの感染がこれ以上進まなければの話だがな。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="勇敢な子供"]  オレグ兄ちゃんたちもいるんだ。俺たちは五人だ、行くならみんな一緒がいい。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="前衛オペレーター"]  そうか……わかった。それなら、俺はひとまずその子たちを探してくるとしよう。ワルファリン先生も後でみんなの検査をしてくれるぞ。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="前衛オペレーター"]  みんな一緒にいられれば、その分生きる希望も大きくなるからな。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="勇敢な子供"]  ……先生？
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ワルファリン"]  うん？
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="勇敢な子供"]  もう一つ訊いてもいいか……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ワルファリン"]  なんだ？
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="勇敢な子供"]  先生は……本当に吸血モンスターなの？
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="前衛オペレーター"]  ゴホッ！　ゴホゴホッ。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ワルファリン"]  （歯をむき出す）
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="前衛オペレーター"]  怖気づいたか？　……ほう、我慢したか。本当に勇敢な子だな。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="前衛オペレーター"]  俺もワルファリン先生と知り合って長いが、実を言うとな、彼女は確かにどこかおかしい……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ワルファリン"]  おい！　そなた――
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="前衛オペレーター"]  ゴホンッ！　まぁ、ずば抜けた医療技術を持つ先生だが、時々……不意に手術台に縛りつけられると、どうしても背筋が冷たくなる。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ワルファリン"]  ふむ、背筋が冷たくなるのは本能だ。気にすることではないわ。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ワルファリン"]  砂虫がハガネガニに遭遇した時のように、小動物が獰猛な大型野獣に遭遇した時のように、そなたらがブラッドブルードに遭遇したなら、体が本能的に恐れるのは当然だろう。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ワルファリン"]  その感覚は忘れない方がいい。外には妾やクロージャのような、お人好しのブラッドブルードなど滅多におらんぞ。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="前衛オペレーター"]  ハ……ハハッ。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ワルファリン"]  さて……この小童の問いに戻ろう――
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ワルファリン"]  ま、半々といったところだな。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="勇敢な子供"]  半々？
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ワルファリン"]  今となって、妾の血液に対する関心は、もはや啜りたいという欲求としては表れなくなっておる。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="勇敢な子供"]  じゃあ……化け物じゃないの？
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="勇敢な子供"]  化け物って呼ばれて……怒らないの？
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ワルファリン"]  ふむ……そなたらにとっては、妾は確かに化け物であろう？
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ワルファリン"]  妾は、そなたらに同類として見てほしいなどと思ったことはない。そして妾が他の種族を同類と見なすこともない。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ワルファリン"]  だが、他人と違うことで化け物と見なされるのであれば……誰もが化け物と呼ばれる可能性を持つだろう。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ワルファリン"]  例えば、もしそなたの友人であるユーリが、本当に感染者になってしまえば、多くの者が彼をそう呼ぶであろう。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="勇敢な子供"]  俺はそんなことしない。俺はユーリを化け物なんて呼ばない。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ワルファリン"]  そなたはそうかもしれん。だが他の者はどうだ。他者の考えを変えるのは難しいぞ。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="勇敢な子供"]  もし誰かがユーリを化け物呼ばわりしやがったら、俺がそいつをぶん殴る！
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ワルファリン"]  ほら、今そなたは怒りを覚えたな？
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ワルファリン"]  そなたがそやつらを殴れば、そやつらも殴り返す。そうやって殴り殴られることは、たとえ命は無駄にせずとも、時間の無駄になるのではないか？
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="勇敢な子供"]  時間の……無駄？
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ワルファリン"]  ああ、時間の無駄だな。そなたが怒りに身を任せて争っているまさに間に、友人は病で息絶えてしまうかもしれぬぞ。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ワルファリン"]  そのうち気付くだろうな。怒りよりも、もっと大切なことに――あるいはもっと意味のあることにエネルギーを注ぐ方が良いと。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ワルファリン"]  そなたたちの場合は……そうだな、この先どうやって生きるかを考える、とかな。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="勇敢な子供"]  生きる……そうだ、俺たちは生きていきたい。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ワルファリン"]  それで良い。より良く生きていきたいのならば、自分は異種であるという事実をまず受け入れ、それから他者とうまくやっていく方法を見つけなければならぬ。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ワルファリン"]  それとな、小童……そなたがもう少し大きくなったら、もっと色んな場所へ行き、色んなものを見るが良い……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="ワルファリン"]  そうすれば、化け物と見なされることは……怒るほどのことではないと思うようになるかもしれぬぞ？
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10:32 PM \ Light drizzle
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chernobog - Post-battle Ruins
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Brave Child"]  Hey—Hey! Is anyone here?!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Brave Child"]  ......
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Brave Child"]  It's gotten really dark... I just walked past the school, the cake shop, and the tailor shop that Rolena's mom used to run...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Brave Child"]  If I keep going straight, I'll be in the next district.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Brave Child"]  Dammit... This road is barely walkable. Those nutjobs with the masks... Everything's changed all of a sudden, thanks to them.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Brave Child"]  Yuri! Yuri, where are you?!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Brave Child"]  We were together just a moment ago... I was just trying to get us some water that we can drink!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Brave Child"]  Yuri's the youngest, and he's the most hurt. Where could he have gone by himself? Right, his wound was still bleeding... If I look out for the smell of blood... Uhh... It smells like blood everywhere.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Brave Child"]  Ugh, it stinks.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Brave Child"]  No, I can't throw up. It took Oleg so long to find us dinner in the ruins.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Brave Child"]  Yuri—
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="???"]  *Whimpers*...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Brave Child"]  Is that sound coming from behind the wall? A small animal, maybe?  Hmm, probably not. Everything that was alive in this street ran away a long time ago. We're the only ones left.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Brave Child"]  There it is again. It doesn't sound like the wind. Could it really be...?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Brave Child"]  Yuri! Yuri, is that you?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Brave Child"]  It quieted down. Am I too far away? What was behind the wall again...? The department store's old storeroom?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Brave Child"]  The storeroom's been empty the whole time, and the adults would never let us close to it. Oleg even said before that he'd help us sneak inside one day.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Brave Child"]  Did Yuri come in here by himself? It's so dark... I can't see through the gaps. Dammit, I guess I'm gonna have to climb inside.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Brave Child"]  It's even darker in here. My face's all sticky... Is it the rain that dripped in from outside? Urgh, it smells...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Brave Child"]  Now I remember... The girls in school said there's something weird inside the storeroom.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Brave Child"]  It's gotta be fake.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Brave Child"]  But... I've already seen so many weird things going on these past few days...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Brave Child"]  No, don't think about that right now, Anton. Don't be scared. You still need to find Yuri.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Brave Child"]  Someone's crying! Someone's crying over on that side! Now I heard it this time!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Brave Child"]  Yuri, is that you?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Scared Child"]  Anton...? Anton?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Brave Child"]  Yeah, it's me. I'm here. You don't need to be scared no more. I'll climb over there. Give me a second.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Scared Child"]  Help... Help me...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Brave Child"]  Hang in there. I'm almost there. What happened anyway? Why'd you run this far on your own all a sudden?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Brave Child"]  Isn't your leg hurt...?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Scared Child"]  Uhh... *Sobs*... T-There was a monster...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Brave Child"]  A monster? What are you talking about, Yuri? Do you have a fever?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Scared Child"]  A monster... brought me here...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Brave Child"]  The monster you're talking about... What does it look like?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Scared Child"]  I... I couldn't get a good look... I think it had black claws... And it had red eyes! It stared at me. I-I was so scared, I didn't know what was going on at all.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Brave Child"]  Black claws and red eyes? I think I heard of that before.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Brave Child"]  Oh yeah, that's the ghost story that Lina from school talked about, right?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Scared Child"]  Yeah... Lina said... She said any kids that don't go to bed at night will get a visit from the monster.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Scared Child"]  It'll keep staring at you, and if your eyes are open and lock onto her red eyes, your soul will get sucked out right away.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Scared Child"]  You'll turn into something like a marionette. You'll climb off your bed with the monster and follow it outside and onto the street. Then you'll keep following it... until you reach its nest.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Scared Child"]  There, the monster will hang you up on the eaves... Just like how we hang sausages at home...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Scared Child"]  And when it's hungry... It'll come suck your blood, one mouthful after another until your body's bone dry.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Scared Child"]  *Sobs*... Anton, I can't possibly have...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Brave Child"]  Stop it. You're scaring yourself. This is just something the adults made up to get us to go to bed early, I'm sure of it.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Scared Child"]  R-Really?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Brave Child"]  Well, think about it. Did it hang you up?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Scared Child"]  I... There's something holding my leg... Somewhere up high...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Brave Child"]  What?!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Scared Child"]  So... What Lina said's actually real, right?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Scared Child"]  *sobs*... Anton... I don't wanna be eaten by the monster...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Brave Child"]  It's okay. I'll be there soon. We just gotta be fast. I'll carry you back before that mon... Before whatever it is comes back.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Scared Child"]  Yeah... N-No... Anton, stay away! Go back!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Brave Child"]  I can see you now, Yuri—
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Brave Child"]  What's this?!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Subtitle(text="A nightmare that walks the night.", x=300, y=370, alignment="center", size=24, delay=0.04, width=700)]
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Subtitle(text="A monster who kidnaps children and sucks their blood dry.", x=300, y=550, alignment="center", size=24, delay=0.04, width=700)]
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Subtitle(text="Their bodies stink of blood.", x=300, y=450, alignment="center", size=24, delay=0.04, width=700)]
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Subtitle(text="They have eyes that glow crimson red.", x=300, y=400, alignment="center", size=24, delay=0.04, width=700)]
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Brave Child"]  Ahhhh—!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="???"]  Got you now.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Brave Child"]  No... Stay away! Don't come any closer! I... I won't let you hurt Yuri!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="???"]  Me, hurt him? Boy, what do you think I'm trying to do?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Brave Child"]  You want to suck his blood, you blood-sucking monster!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="???"]  Well, it's been a long while since anyone has called me that.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="???"]  Yes, that's right. I'm a Vampire.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="???"]  My, my, your reaction's not bad for someone who looks so frail.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="???"]  But you know, if we're going there, you'll need a bigger brick to throw at me.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="???"]  I'm a Vampire! We are swift beyond measure, and rank among the mightiest devil races! And have you seen these fangs?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="???"]  I can easily tear a cystybeast's neck apart.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="???"]  Holding still? Smart choice.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Brave Child"]  Monster, let Yuri go. He's hurt, and he's lost a lot of blood. He definitely doesn't have as much blood as I do.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Brave Child"]  You can hang me up. When you're hungry, suck my blood.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Scared Child"]  No, Anton... Don't do that...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="???"]  Very well, since you've found this place.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Brave Child"]  She's so fast! I can't move my hand...!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Brave Child"]  Ugh? It hurts!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Brave Child"]  I can't dodge it... Is this how it's like... to get bitten?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="???"]  There you go.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Brave Child"]  There I go...? I'm still standing upright... I don't feel dizzy either...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="???"]  Just that bit of blood will do. You are really healthy. It shouldn't leave you with any side effects.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Brave Child"]  So... Are you gonna take me home... and make me sausage?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="???"]  Sausage? Is that some Ursus specialty? It sounds nice. If I ever get to come here again after I'm done with this job, maybe I'll give it a try.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="???"]  Compass? Compass, are you there?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Guard Operator"]  *Cough*, I'm here, Dr. Warfarin.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Warfarin"]  I'm working so hard, I'm practically sweating blood, and here you are, just standing there, watching the show.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Guard Operator"]  Haha, well, I only just got here. Besides, it looks like you're enjoying yourself.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Brave Child"]  Doc...tor?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Brave Child"]  You mean, this blood-sucking monster is a doctor?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Warfarin"]  Look at this, Compass. The kids just won't stop calling me a blood-sucking monster. Don't you think I'm like a saint for letting them off with just a little scare?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Brave Child"]  You're... scaring us?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Guard Operator"]  Let me explain.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Guard Operator"]  Little buddy? I found your friend while I was out on a mission. He was all alone, and it looked like he was hurt pretty bad.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Guard Operator"]  I was worried about his safety, so I brought him here. He was kind of drifting off and passed out halfway through, so I couldn't explain to him what was going on.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Guard Operator"]  Dr. Warfarin is one of our top doctors. She's very experienced. You can trust her to patch your friend up.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Guard Operator"]  Oh, and you know how she took a bit of your blood just now? She was just taking a blood sample to run some tests.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Brave Child"]  Tests...?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Warfarin"]  Okay, the results are out. What's that Ursus saying again? Hmm, this young man is as lively as a wild burdenbeast.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Warfarin"]  Congratulations, boy. You are not infected yet.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Brave Child"]  Infected... You mean Oripathy?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Warfarin"]  That's right. These days, you're probably one of the luckiest ones around if you're both alive and uninfected in Chernobog.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Warfarin"]  Your friend there isn't quite as lucky.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Brave Child"]  Is something wrong with Yuri?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Warfarin"]  All I can say is we took care of him before it's too late, and you've got me. If Folinic had been in charge of the area, he probably wouldn't have gotten such a wonderful patch up job.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Guard Operator"]  Ahem... If she heard that, I'm sure she'd be mad.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Warfarin"]  And what do I care if she's mad? She still has much to learn.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Warfarin"]  Can she figure out right away where the Originium crystals are building up just going by the changes in the smell of his blood?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Warfarin"]  For patients like him, who just started to show symptoms, we need to do more than just take care of their wounds to keep the infection from progressing. We also need to prevent the Originium that's already in their bodies from forming leisons around the wounds.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Warfarin"]  The inhibitors that are out on the market can only alleviate symptoms. Even if I'm on the case, the most I can do is minimize the risk of the disease getting any worse.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Brave Child"]  Did you hang Yuri's leg up like that to help him?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Warfarin"]  Well...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Warfarin"]  Yeah... I guess? This is an idea I've wanted to try out for a while. In his case, it should be more effective by a few percentage points.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Warfarin"]  It's so low, I guess it's probably within the margin of error? I might need to find a few more patients to test this out on...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Guard Operator"]  Ahem, Dr. Warfarin, if you keep going, the young gentlemen will start trembling again.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Scared Child"]  *Whimpers*...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Brave Child"]  I get it, you saved us.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Brave Child"]  Thanks...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Warfarin"]  You can thank me later. We need to keep your friend, this Yuri boy, under observation to see how his condition turns out.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Warfarin"]  If he actually becomes Infected...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Warfarin"]  Well, let's not go into that right now.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Guard Operator"]  Hey, Anton? You can rest up a little here with Yuri. Once it's bright outside, I'll take you two to our camp.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Brave Child"]  Your camp?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Guard Operator"]  That's right. We have a camp here. We'll be pulling out of Chernobog soon. When that happens, we'll escort you two to a nearby Ursus city.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Guard Operator"]  That is... if Yuri doesn't show any signs of further infection.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Brave Child"]  There's Oleg and the others too. There are five of us. We're together.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Guard Operator"]  Is that so? Okay. I'll look for them, then. Dr. Warfarin will give them a checkup too.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Guard Operator"]  If all of you stay together, your will to live on will be stronger too.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Brave Child"]  Doctor...?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Warfarin"]  Hm?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Brave Child"]  I have another question...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Warfarin"]  What is it?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Brave Child"]  Are you... really a blood-sucking monster?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Guard Operator"]  *cough*, *cough*.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Warfarin"]  (Brandishes fangs)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Guard Operator"]  Makes you want to take a step back, huh? No? What a brave kid.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Guard Operator"]  To be honest, I have known Dr. Warfarin for a long time, and I know she may seem like she has a few screws loose...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Warfarin"]  I heard that.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Guard Operator"]  *cough*, she's a very skilled doctor. It's just... when you're strapped on the operating table all of a sudden, it does kinda give you chills.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Warfarin"]  That's just your instincts at work. I forgive you.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Warfarin"]  It's like sandworms running into a Metal Crab, or some other tiny meatbeasts running into more ferocious beasts. Of course you'd be scared coming face to face with a Vampire.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Warfarin"]  And you better stay scared. Most Vampires out there aren't nearly as nice as me or Closure.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Guard Operator"]  Ha... Haha.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Warfarin"]  Hm... Back to our little buddy's question—
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Warfarin"]  Maybe half-and-half?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Brave Child"]  Half-and-half?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Warfarin"]  My interest in blood doesn't manifest as thirst anymore.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Brave Child"]  So... a monster then?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Brave Child"]  So you don't get mad... if you're called a monster?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Warfarin"]  Well... to you, I am a monster, no doubt about that.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Warfarin"]  I've never wished for you people to treat me as your own kind, and I don't see the other races as my equals either.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Warfarin"]  And well, if I'm a monster just because I'm unlike the others... then everyone out there can be called a monster too.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Warfarin"]  For example, if your friend Yuri actually becomes infected, then a lot of people will call him a monster.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Brave Child"]  I won't. I won't call him a monster.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Warfarin"]  What about the others? It's won't be easy for you to change how they see him.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Brave Child"]  If they insist on calling him a monster, I'll fight them off.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Warfarin"]  See? You're mad, aren't you?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Warfarin"]  You'll fight them off, and they'll fight back. Even if nobody dies in all that fighting, it'll be a waste of time, don't you think?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Brave Child"]  A waste of time...?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Warfarin"]  Yes, a waste of time. While you're angry, your friend may die of his disease.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Warfarin"]  If you take a step back and think it through slowly, you'll find that, instead of being angry, it makes more sense to spend your energy working out more important or meaningful things.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Warfarin"]  For you, hm... I suppose that's figuring out how you want to live?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Brave Child"]  Live... Right, we want to live.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Warfarin"]  That's right! And if you want to live a better life, you need to learn to accept that you are different and then figure out how to get along with others.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Warfarin"]  One more thing, buddy. Once you grow up, be sure to travel to all kinds of places and see what it's like everywhere.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Warfarin"]  That way, you will probably come to understand that... being seen as a monster is nothing worth getting angry over.
+</t>
+  </si>
+  <si>
     <t xml:space="preserve">10:32 P. M. 날씨/이슬비
 </t>
   </si>
@@ -968,7 +2304,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="???"]  그래, 그래. 맞다, 이 몸은 흡혈귀.
+    <t xml:space="preserve">[name="???"]  그래, 그래. 맞다, 이 몸은 뱀파이어.
 </t>
   </si>
   <si>
@@ -980,7 +2316,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="???"]  이 몸은 흡혈귀다, 흡혈귀! 우리는 속도가 아주 빠르고, 힘으로는 살카즈 중에서도 손에 꼽지. 그리고, 이 몸의 이가 보이느냐?
+    <t xml:space="preserve">[name="???"]  이 몸은 뱀파이어다, 뱀파이어! 우리는 속도가 아주 빠르고, 힘으로는 살카즈 중에서도 손에 꼽지. 그리고, 이 몸의 이가 보이느냐?
 </t>
   </si>
   <si>
@@ -1264,11 +2600,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="와파린"]  갯지렁이가 메탈 크랩을 만나고, 다른 소형 동물이 더 흉악한 야수를 만난 것처럼, 너희도 흡혈귀를 만나면 당연히 두렵겠지.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="와파린"]  그리고, 두려움을 유지하는 게 좋을 것이다. 밖에 나가면 이 몸과 클로저같이 좋은 흡혈귀는 보기 드물거든.
+    <t xml:space="preserve">[name="와파린"]  갯지렁이가 메탈 크랩을 만나고, 다른 소형 동물이 더 흉악한 야수를 만난 것처럼, 너희도 뱀파이어를 만나면 당연히 두렵겠지.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="와파린"]  그리고, 두려움을 유지하는 게 좋을 것이다. 밖에 나가면 이 몸과 클로저같이 좋은 뱀파이어는 보기 드물거든.
 </t>
   </si>
   <si>
@@ -1748,13 +3084,13 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>172</v>
       </c>
       <c r="C2" t="s">
-        <v>4</v>
+        <v>340</v>
       </c>
       <c r="D2" t="s">
-        <v>172</v>
+        <v>506</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1762,13 +3098,13 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>173</v>
       </c>
       <c r="C3" t="s">
-        <v>5</v>
+        <v>341</v>
       </c>
       <c r="D3" t="s">
-        <v>173</v>
+        <v>507</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1776,13 +3112,13 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>174</v>
       </c>
       <c r="C4" t="s">
-        <v>6</v>
+        <v>342</v>
       </c>
       <c r="D4" t="s">
-        <v>174</v>
+        <v>508</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1790,13 +3126,13 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>175</v>
       </c>
       <c r="C5" t="s">
-        <v>7</v>
+        <v>343</v>
       </c>
       <c r="D5" t="s">
-        <v>175</v>
+        <v>509</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1804,13 +3140,13 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>176</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>344</v>
       </c>
       <c r="D6" t="s">
-        <v>176</v>
+        <v>510</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1818,13 +3154,13 @@
         <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>177</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>345</v>
       </c>
       <c r="D7" t="s">
-        <v>177</v>
+        <v>511</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1832,13 +3168,13 @@
         <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>178</v>
       </c>
       <c r="C8" t="s">
-        <v>10</v>
+        <v>346</v>
       </c>
       <c r="D8" t="s">
-        <v>178</v>
+        <v>512</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1846,13 +3182,13 @@
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>11</v>
+        <v>179</v>
       </c>
       <c r="C9" t="s">
-        <v>11</v>
+        <v>347</v>
       </c>
       <c r="D9" t="s">
-        <v>179</v>
+        <v>513</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1860,13 +3196,13 @@
         <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>12</v>
+        <v>180</v>
       </c>
       <c r="C10" t="s">
-        <v>12</v>
+        <v>348</v>
       </c>
       <c r="D10" t="s">
-        <v>180</v>
+        <v>514</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1874,13 +3210,13 @@
         <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>13</v>
+        <v>181</v>
       </c>
       <c r="C11" t="s">
-        <v>13</v>
+        <v>349</v>
       </c>
       <c r="D11" t="s">
-        <v>181</v>
+        <v>515</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1888,13 +3224,13 @@
         <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>14</v>
+        <v>182</v>
       </c>
       <c r="C12" t="s">
-        <v>14</v>
+        <v>350</v>
       </c>
       <c r="D12" t="s">
-        <v>182</v>
+        <v>516</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1902,13 +3238,13 @@
         <v>15</v>
       </c>
       <c r="B13" t="s">
-        <v>15</v>
+        <v>183</v>
       </c>
       <c r="C13" t="s">
-        <v>15</v>
+        <v>351</v>
       </c>
       <c r="D13" t="s">
-        <v>183</v>
+        <v>517</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -1916,13 +3252,13 @@
         <v>16</v>
       </c>
       <c r="B14" t="s">
-        <v>16</v>
+        <v>184</v>
       </c>
       <c r="C14" t="s">
-        <v>16</v>
+        <v>352</v>
       </c>
       <c r="D14" t="s">
-        <v>184</v>
+        <v>518</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -1930,13 +3266,13 @@
         <v>17</v>
       </c>
       <c r="B15" t="s">
-        <v>17</v>
+        <v>185</v>
       </c>
       <c r="C15" t="s">
-        <v>17</v>
+        <v>353</v>
       </c>
       <c r="D15" t="s">
-        <v>185</v>
+        <v>519</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -1944,13 +3280,13 @@
         <v>18</v>
       </c>
       <c r="B16" t="s">
-        <v>18</v>
+        <v>186</v>
       </c>
       <c r="C16" t="s">
-        <v>18</v>
+        <v>354</v>
       </c>
       <c r="D16" t="s">
-        <v>186</v>
+        <v>520</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -1958,13 +3294,13 @@
         <v>19</v>
       </c>
       <c r="B17" t="s">
-        <v>19</v>
+        <v>187</v>
       </c>
       <c r="C17" t="s">
-        <v>19</v>
+        <v>353</v>
       </c>
       <c r="D17" t="s">
-        <v>185</v>
+        <v>519</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -1972,13 +3308,13 @@
         <v>20</v>
       </c>
       <c r="B18" t="s">
-        <v>20</v>
+        <v>188</v>
       </c>
       <c r="C18" t="s">
-        <v>20</v>
+        <v>355</v>
       </c>
       <c r="D18" t="s">
-        <v>187</v>
+        <v>521</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -1986,13 +3322,13 @@
         <v>21</v>
       </c>
       <c r="B19" t="s">
-        <v>21</v>
+        <v>189</v>
       </c>
       <c r="C19" t="s">
-        <v>21</v>
+        <v>356</v>
       </c>
       <c r="D19" t="s">
-        <v>188</v>
+        <v>522</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -2000,13 +3336,13 @@
         <v>22</v>
       </c>
       <c r="B20" t="s">
-        <v>22</v>
+        <v>190</v>
       </c>
       <c r="C20" t="s">
-        <v>22</v>
+        <v>357</v>
       </c>
       <c r="D20" t="s">
-        <v>189</v>
+        <v>523</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -2014,13 +3350,13 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>23</v>
+        <v>191</v>
       </c>
       <c r="C21" t="s">
-        <v>23</v>
+        <v>358</v>
       </c>
       <c r="D21" t="s">
-        <v>190</v>
+        <v>524</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -2028,13 +3364,13 @@
         <v>24</v>
       </c>
       <c r="B22" t="s">
-        <v>24</v>
+        <v>192</v>
       </c>
       <c r="C22" t="s">
-        <v>24</v>
+        <v>359</v>
       </c>
       <c r="D22" t="s">
-        <v>191</v>
+        <v>525</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -2042,13 +3378,13 @@
         <v>25</v>
       </c>
       <c r="B23" t="s">
-        <v>25</v>
+        <v>193</v>
       </c>
       <c r="C23" t="s">
-        <v>25</v>
+        <v>360</v>
       </c>
       <c r="D23" t="s">
-        <v>192</v>
+        <v>526</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -2056,13 +3392,13 @@
         <v>26</v>
       </c>
       <c r="B24" t="s">
-        <v>26</v>
+        <v>194</v>
       </c>
       <c r="C24" t="s">
-        <v>26</v>
+        <v>361</v>
       </c>
       <c r="D24" t="s">
-        <v>193</v>
+        <v>527</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -2070,13 +3406,13 @@
         <v>27</v>
       </c>
       <c r="B25" t="s">
-        <v>27</v>
+        <v>195</v>
       </c>
       <c r="C25" t="s">
-        <v>27</v>
+        <v>362</v>
       </c>
       <c r="D25" t="s">
-        <v>194</v>
+        <v>528</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -2084,13 +3420,13 @@
         <v>28</v>
       </c>
       <c r="B26" t="s">
-        <v>28</v>
+        <v>196</v>
       </c>
       <c r="C26" t="s">
-        <v>28</v>
+        <v>363</v>
       </c>
       <c r="D26" t="s">
-        <v>195</v>
+        <v>529</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -2098,13 +3434,13 @@
         <v>29</v>
       </c>
       <c r="B27" t="s">
-        <v>29</v>
+        <v>197</v>
       </c>
       <c r="C27" t="s">
-        <v>29</v>
+        <v>364</v>
       </c>
       <c r="D27" t="s">
-        <v>196</v>
+        <v>530</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -2112,13 +3448,13 @@
         <v>30</v>
       </c>
       <c r="B28" t="s">
-        <v>30</v>
+        <v>198</v>
       </c>
       <c r="C28" t="s">
-        <v>30</v>
+        <v>353</v>
       </c>
       <c r="D28" t="s">
-        <v>197</v>
+        <v>531</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -2126,13 +3462,13 @@
         <v>31</v>
       </c>
       <c r="B29" t="s">
-        <v>31</v>
+        <v>199</v>
       </c>
       <c r="C29" t="s">
-        <v>31</v>
+        <v>365</v>
       </c>
       <c r="D29" t="s">
-        <v>198</v>
+        <v>532</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -2140,13 +3476,13 @@
         <v>32</v>
       </c>
       <c r="B30" t="s">
-        <v>32</v>
+        <v>200</v>
       </c>
       <c r="C30" t="s">
-        <v>32</v>
+        <v>366</v>
       </c>
       <c r="D30" t="s">
-        <v>199</v>
+        <v>533</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -2154,13 +3490,13 @@
         <v>33</v>
       </c>
       <c r="B31" t="s">
-        <v>33</v>
+        <v>201</v>
       </c>
       <c r="C31" t="s">
-        <v>33</v>
+        <v>367</v>
       </c>
       <c r="D31" t="s">
-        <v>200</v>
+        <v>534</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -2168,13 +3504,13 @@
         <v>34</v>
       </c>
       <c r="B32" t="s">
-        <v>34</v>
+        <v>202</v>
       </c>
       <c r="C32" t="s">
-        <v>34</v>
+        <v>368</v>
       </c>
       <c r="D32" t="s">
-        <v>201</v>
+        <v>535</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -2182,13 +3518,13 @@
         <v>35</v>
       </c>
       <c r="B33" t="s">
-        <v>35</v>
+        <v>203</v>
       </c>
       <c r="C33" t="s">
-        <v>35</v>
+        <v>369</v>
       </c>
       <c r="D33" t="s">
-        <v>202</v>
+        <v>536</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -2196,13 +3532,13 @@
         <v>36</v>
       </c>
       <c r="B34" t="s">
-        <v>36</v>
+        <v>204</v>
       </c>
       <c r="C34" t="s">
-        <v>36</v>
+        <v>370</v>
       </c>
       <c r="D34" t="s">
-        <v>203</v>
+        <v>537</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -2210,13 +3546,13 @@
         <v>37</v>
       </c>
       <c r="B35" t="s">
-        <v>37</v>
+        <v>205</v>
       </c>
       <c r="C35" t="s">
-        <v>37</v>
+        <v>371</v>
       </c>
       <c r="D35" t="s">
-        <v>204</v>
+        <v>538</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -2224,13 +3560,13 @@
         <v>38</v>
       </c>
       <c r="B36" t="s">
-        <v>38</v>
+        <v>206</v>
       </c>
       <c r="C36" t="s">
-        <v>38</v>
+        <v>372</v>
       </c>
       <c r="D36" t="s">
-        <v>205</v>
+        <v>539</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -2238,13 +3574,13 @@
         <v>39</v>
       </c>
       <c r="B37" t="s">
-        <v>39</v>
+        <v>207</v>
       </c>
       <c r="C37" t="s">
-        <v>39</v>
+        <v>373</v>
       </c>
       <c r="D37" t="s">
-        <v>206</v>
+        <v>540</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -2252,13 +3588,13 @@
         <v>40</v>
       </c>
       <c r="B38" t="s">
-        <v>40</v>
+        <v>208</v>
       </c>
       <c r="C38" t="s">
-        <v>40</v>
+        <v>374</v>
       </c>
       <c r="D38" t="s">
-        <v>207</v>
+        <v>541</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -2266,13 +3602,13 @@
         <v>7</v>
       </c>
       <c r="B39" t="s">
-        <v>7</v>
+        <v>175</v>
       </c>
       <c r="C39" t="s">
-        <v>7</v>
+        <v>343</v>
       </c>
       <c r="D39" t="s">
-        <v>175</v>
+        <v>509</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -2280,13 +3616,13 @@
         <v>41</v>
       </c>
       <c r="B40" t="s">
-        <v>41</v>
+        <v>209</v>
       </c>
       <c r="C40" t="s">
-        <v>41</v>
+        <v>375</v>
       </c>
       <c r="D40" t="s">
-        <v>208</v>
+        <v>542</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -2294,13 +3630,13 @@
         <v>42</v>
       </c>
       <c r="B41" t="s">
-        <v>42</v>
+        <v>210</v>
       </c>
       <c r="C41" t="s">
-        <v>42</v>
+        <v>376</v>
       </c>
       <c r="D41" t="s">
-        <v>209</v>
+        <v>543</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -2308,13 +3644,13 @@
         <v>43</v>
       </c>
       <c r="B42" t="s">
-        <v>43</v>
+        <v>211</v>
       </c>
       <c r="C42" t="s">
-        <v>43</v>
+        <v>377</v>
       </c>
       <c r="D42" t="s">
-        <v>210</v>
+        <v>544</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -2322,13 +3658,13 @@
         <v>44</v>
       </c>
       <c r="B43" t="s">
-        <v>44</v>
+        <v>212</v>
       </c>
       <c r="C43" t="s">
-        <v>44</v>
+        <v>378</v>
       </c>
       <c r="D43" t="s">
-        <v>211</v>
+        <v>545</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -2336,13 +3672,13 @@
         <v>45</v>
       </c>
       <c r="B44" t="s">
-        <v>45</v>
+        <v>213</v>
       </c>
       <c r="C44" t="s">
-        <v>45</v>
+        <v>379</v>
       </c>
       <c r="D44" t="s">
-        <v>212</v>
+        <v>546</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -2350,13 +3686,13 @@
         <v>46</v>
       </c>
       <c r="B45" t="s">
-        <v>46</v>
+        <v>214</v>
       </c>
       <c r="C45" t="s">
-        <v>46</v>
+        <v>380</v>
       </c>
       <c r="D45" t="s">
-        <v>213</v>
+        <v>547</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -2364,13 +3700,13 @@
         <v>47</v>
       </c>
       <c r="B46" t="s">
-        <v>47</v>
+        <v>215</v>
       </c>
       <c r="C46" t="s">
-        <v>47</v>
+        <v>381</v>
       </c>
       <c r="D46" t="s">
-        <v>214</v>
+        <v>548</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -2378,13 +3714,13 @@
         <v>48</v>
       </c>
       <c r="B47" t="s">
-        <v>48</v>
+        <v>216</v>
       </c>
       <c r="C47" t="s">
-        <v>48</v>
+        <v>382</v>
       </c>
       <c r="D47" t="s">
-        <v>215</v>
+        <v>549</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -2392,13 +3728,13 @@
         <v>49</v>
       </c>
       <c r="B48" t="s">
-        <v>49</v>
+        <v>217</v>
       </c>
       <c r="C48" t="s">
-        <v>49</v>
+        <v>383</v>
       </c>
       <c r="D48" t="s">
-        <v>216</v>
+        <v>550</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -2406,13 +3742,13 @@
         <v>50</v>
       </c>
       <c r="B49" t="s">
-        <v>50</v>
+        <v>218</v>
       </c>
       <c r="C49" t="s">
-        <v>50</v>
+        <v>384</v>
       </c>
       <c r="D49" t="s">
-        <v>217</v>
+        <v>551</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -2420,13 +3756,13 @@
         <v>51</v>
       </c>
       <c r="B50" t="s">
-        <v>51</v>
+        <v>219</v>
       </c>
       <c r="C50" t="s">
-        <v>51</v>
+        <v>385</v>
       </c>
       <c r="D50" t="s">
-        <v>218</v>
+        <v>552</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -2434,13 +3770,13 @@
         <v>52</v>
       </c>
       <c r="B51" t="s">
-        <v>52</v>
+        <v>220</v>
       </c>
       <c r="C51" t="s">
-        <v>52</v>
+        <v>386</v>
       </c>
       <c r="D51" t="s">
-        <v>219</v>
+        <v>553</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -2448,13 +3784,13 @@
         <v>53</v>
       </c>
       <c r="B52" t="s">
-        <v>53</v>
+        <v>221</v>
       </c>
       <c r="C52" t="s">
-        <v>53</v>
+        <v>387</v>
       </c>
       <c r="D52" t="s">
-        <v>220</v>
+        <v>554</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -2462,13 +3798,13 @@
         <v>54</v>
       </c>
       <c r="B53" t="s">
-        <v>54</v>
+        <v>222</v>
       </c>
       <c r="C53" t="s">
-        <v>54</v>
+        <v>388</v>
       </c>
       <c r="D53" t="s">
-        <v>221</v>
+        <v>555</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -2476,13 +3812,13 @@
         <v>55</v>
       </c>
       <c r="B54" t="s">
-        <v>55</v>
+        <v>223</v>
       </c>
       <c r="C54" t="s">
-        <v>55</v>
+        <v>389</v>
       </c>
       <c r="D54" t="s">
-        <v>222</v>
+        <v>556</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -2490,13 +3826,13 @@
         <v>56</v>
       </c>
       <c r="B55" t="s">
-        <v>56</v>
+        <v>224</v>
       </c>
       <c r="C55" t="s">
-        <v>56</v>
+        <v>390</v>
       </c>
       <c r="D55" t="s">
-        <v>223</v>
+        <v>557</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -2504,13 +3840,13 @@
         <v>57</v>
       </c>
       <c r="B56" t="s">
-        <v>57</v>
+        <v>225</v>
       </c>
       <c r="C56" t="s">
-        <v>57</v>
+        <v>391</v>
       </c>
       <c r="D56" t="s">
-        <v>224</v>
+        <v>558</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -2518,13 +3854,13 @@
         <v>58</v>
       </c>
       <c r="B57" t="s">
-        <v>58</v>
+        <v>226</v>
       </c>
       <c r="C57" t="s">
-        <v>58</v>
+        <v>392</v>
       </c>
       <c r="D57" t="s">
-        <v>225</v>
+        <v>559</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -2532,13 +3868,13 @@
         <v>59</v>
       </c>
       <c r="B58" t="s">
-        <v>59</v>
+        <v>227</v>
       </c>
       <c r="C58" t="s">
-        <v>59</v>
+        <v>393</v>
       </c>
       <c r="D58" t="s">
-        <v>226</v>
+        <v>560</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -2546,13 +3882,13 @@
         <v>60</v>
       </c>
       <c r="B59" t="s">
-        <v>60</v>
+        <v>228</v>
       </c>
       <c r="C59" t="s">
-        <v>60</v>
+        <v>394</v>
       </c>
       <c r="D59" t="s">
-        <v>227</v>
+        <v>561</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -2560,13 +3896,13 @@
         <v>61</v>
       </c>
       <c r="B60" t="s">
-        <v>61</v>
+        <v>229</v>
       </c>
       <c r="C60" t="s">
-        <v>61</v>
+        <v>395</v>
       </c>
       <c r="D60" t="s">
-        <v>228</v>
+        <v>562</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -2574,13 +3910,13 @@
         <v>62</v>
       </c>
       <c r="B61" t="s">
-        <v>62</v>
+        <v>230</v>
       </c>
       <c r="C61" t="s">
-        <v>62</v>
+        <v>396</v>
       </c>
       <c r="D61" t="s">
-        <v>229</v>
+        <v>563</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -2588,13 +3924,13 @@
         <v>63</v>
       </c>
       <c r="B62" t="s">
-        <v>63</v>
+        <v>231</v>
       </c>
       <c r="C62" t="s">
-        <v>63</v>
+        <v>397</v>
       </c>
       <c r="D62" t="s">
-        <v>230</v>
+        <v>564</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -2602,13 +3938,13 @@
         <v>64</v>
       </c>
       <c r="B63" t="s">
-        <v>64</v>
+        <v>232</v>
       </c>
       <c r="C63" t="s">
-        <v>64</v>
+        <v>398</v>
       </c>
       <c r="D63" t="s">
-        <v>231</v>
+        <v>565</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -2616,13 +3952,13 @@
         <v>65</v>
       </c>
       <c r="B64" t="s">
-        <v>65</v>
+        <v>233</v>
       </c>
       <c r="C64" t="s">
-        <v>65</v>
+        <v>399</v>
       </c>
       <c r="D64" t="s">
-        <v>232</v>
+        <v>566</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -2630,13 +3966,13 @@
         <v>66</v>
       </c>
       <c r="B65" t="s">
-        <v>66</v>
+        <v>234</v>
       </c>
       <c r="C65" t="s">
-        <v>66</v>
+        <v>400</v>
       </c>
       <c r="D65" t="s">
-        <v>233</v>
+        <v>567</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -2644,13 +3980,13 @@
         <v>67</v>
       </c>
       <c r="B66" t="s">
-        <v>67</v>
+        <v>235</v>
       </c>
       <c r="C66" t="s">
-        <v>67</v>
+        <v>401</v>
       </c>
       <c r="D66" t="s">
-        <v>234</v>
+        <v>568</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -2658,13 +3994,13 @@
         <v>68</v>
       </c>
       <c r="B67" t="s">
-        <v>68</v>
+        <v>236</v>
       </c>
       <c r="C67" t="s">
-        <v>68</v>
+        <v>402</v>
       </c>
       <c r="D67" t="s">
-        <v>235</v>
+        <v>569</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -2672,13 +4008,13 @@
         <v>69</v>
       </c>
       <c r="B68" t="s">
-        <v>69</v>
+        <v>237</v>
       </c>
       <c r="C68" t="s">
-        <v>69</v>
+        <v>403</v>
       </c>
       <c r="D68" t="s">
-        <v>236</v>
+        <v>570</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -2686,13 +4022,13 @@
         <v>70</v>
       </c>
       <c r="B69" t="s">
-        <v>70</v>
+        <v>238</v>
       </c>
       <c r="C69" t="s">
-        <v>70</v>
+        <v>404</v>
       </c>
       <c r="D69" t="s">
-        <v>237</v>
+        <v>571</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -2700,13 +4036,13 @@
         <v>71</v>
       </c>
       <c r="B70" t="s">
-        <v>71</v>
+        <v>239</v>
       </c>
       <c r="C70" t="s">
-        <v>71</v>
+        <v>405</v>
       </c>
       <c r="D70" t="s">
-        <v>238</v>
+        <v>572</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -2714,13 +4050,13 @@
         <v>72</v>
       </c>
       <c r="B71" t="s">
-        <v>72</v>
+        <v>240</v>
       </c>
       <c r="C71" t="s">
-        <v>72</v>
+        <v>406</v>
       </c>
       <c r="D71" t="s">
-        <v>239</v>
+        <v>573</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -2728,13 +4064,13 @@
         <v>73</v>
       </c>
       <c r="B72" t="s">
-        <v>73</v>
+        <v>241</v>
       </c>
       <c r="C72" t="s">
-        <v>73</v>
+        <v>407</v>
       </c>
       <c r="D72" t="s">
-        <v>240</v>
+        <v>574</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -2742,13 +4078,13 @@
         <v>74</v>
       </c>
       <c r="B73" t="s">
-        <v>74</v>
+        <v>242</v>
       </c>
       <c r="C73" t="s">
-        <v>74</v>
+        <v>408</v>
       </c>
       <c r="D73" t="s">
-        <v>241</v>
+        <v>575</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -2756,13 +4092,13 @@
         <v>75</v>
       </c>
       <c r="B74" t="s">
-        <v>75</v>
+        <v>243</v>
       </c>
       <c r="C74" t="s">
-        <v>75</v>
+        <v>409</v>
       </c>
       <c r="D74" t="s">
-        <v>242</v>
+        <v>576</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -2770,13 +4106,13 @@
         <v>76</v>
       </c>
       <c r="B75" t="s">
-        <v>76</v>
+        <v>244</v>
       </c>
       <c r="C75" t="s">
-        <v>76</v>
+        <v>410</v>
       </c>
       <c r="D75" t="s">
-        <v>243</v>
+        <v>577</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -2784,13 +4120,13 @@
         <v>7</v>
       </c>
       <c r="B76" t="s">
-        <v>7</v>
+        <v>175</v>
       </c>
       <c r="C76" t="s">
-        <v>7</v>
+        <v>343</v>
       </c>
       <c r="D76" t="s">
-        <v>175</v>
+        <v>509</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -2798,13 +4134,13 @@
         <v>77</v>
       </c>
       <c r="B77" t="s">
-        <v>77</v>
+        <v>245</v>
       </c>
       <c r="C77" t="s">
-        <v>77</v>
+        <v>411</v>
       </c>
       <c r="D77" t="s">
-        <v>244</v>
+        <v>578</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -2812,13 +4148,13 @@
         <v>78</v>
       </c>
       <c r="B78" t="s">
-        <v>78</v>
+        <v>246</v>
       </c>
       <c r="C78" t="s">
-        <v>78</v>
+        <v>412</v>
       </c>
       <c r="D78" t="s">
-        <v>245</v>
+        <v>579</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -2826,13 +4162,13 @@
         <v>79</v>
       </c>
       <c r="B79" t="s">
-        <v>79</v>
+        <v>247</v>
       </c>
       <c r="C79" t="s">
-        <v>79</v>
+        <v>413</v>
       </c>
       <c r="D79" t="s">
-        <v>246</v>
+        <v>580</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -2840,13 +4176,13 @@
         <v>80</v>
       </c>
       <c r="B80" t="s">
-        <v>80</v>
+        <v>248</v>
       </c>
       <c r="C80" t="s">
-        <v>80</v>
+        <v>414</v>
       </c>
       <c r="D80" t="s">
-        <v>247</v>
+        <v>581</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -2854,13 +4190,13 @@
         <v>81</v>
       </c>
       <c r="B81" t="s">
-        <v>81</v>
+        <v>249</v>
       </c>
       <c r="C81" t="s">
-        <v>81</v>
+        <v>415</v>
       </c>
       <c r="D81" t="s">
-        <v>248</v>
+        <v>582</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -2868,13 +4204,13 @@
         <v>82</v>
       </c>
       <c r="B82" t="s">
-        <v>82</v>
+        <v>250</v>
       </c>
       <c r="C82" t="s">
-        <v>82</v>
+        <v>416</v>
       </c>
       <c r="D82" t="s">
-        <v>249</v>
+        <v>583</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -2882,13 +4218,13 @@
         <v>83</v>
       </c>
       <c r="B83" t="s">
-        <v>83</v>
+        <v>251</v>
       </c>
       <c r="C83" t="s">
-        <v>83</v>
+        <v>417</v>
       </c>
       <c r="D83" t="s">
-        <v>250</v>
+        <v>584</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -2896,13 +4232,13 @@
         <v>84</v>
       </c>
       <c r="B84" t="s">
-        <v>84</v>
+        <v>252</v>
       </c>
       <c r="C84" t="s">
-        <v>84</v>
+        <v>418</v>
       </c>
       <c r="D84" t="s">
-        <v>251</v>
+        <v>585</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -2910,13 +4246,13 @@
         <v>85</v>
       </c>
       <c r="B85" t="s">
-        <v>85</v>
+        <v>253</v>
       </c>
       <c r="C85" t="s">
-        <v>85</v>
+        <v>419</v>
       </c>
       <c r="D85" t="s">
-        <v>252</v>
+        <v>586</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -2924,13 +4260,13 @@
         <v>86</v>
       </c>
       <c r="B86" t="s">
-        <v>86</v>
+        <v>254</v>
       </c>
       <c r="C86" t="s">
-        <v>86</v>
+        <v>420</v>
       </c>
       <c r="D86" t="s">
-        <v>253</v>
+        <v>587</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -2938,13 +4274,13 @@
         <v>87</v>
       </c>
       <c r="B87" t="s">
-        <v>87</v>
+        <v>255</v>
       </c>
       <c r="C87" t="s">
-        <v>87</v>
+        <v>421</v>
       </c>
       <c r="D87" t="s">
-        <v>254</v>
+        <v>588</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -2952,13 +4288,13 @@
         <v>88</v>
       </c>
       <c r="B88" t="s">
-        <v>88</v>
+        <v>256</v>
       </c>
       <c r="C88" t="s">
-        <v>88</v>
+        <v>422</v>
       </c>
       <c r="D88" t="s">
-        <v>255</v>
+        <v>589</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -2966,13 +4302,13 @@
         <v>89</v>
       </c>
       <c r="B89" t="s">
-        <v>89</v>
+        <v>257</v>
       </c>
       <c r="C89" t="s">
-        <v>89</v>
+        <v>423</v>
       </c>
       <c r="D89" t="s">
-        <v>256</v>
+        <v>590</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -2980,13 +4316,13 @@
         <v>7</v>
       </c>
       <c r="B90" t="s">
-        <v>7</v>
+        <v>175</v>
       </c>
       <c r="C90" t="s">
-        <v>7</v>
+        <v>343</v>
       </c>
       <c r="D90" t="s">
-        <v>175</v>
+        <v>509</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -2994,13 +4330,13 @@
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>90</v>
+        <v>258</v>
       </c>
       <c r="C91" t="s">
-        <v>90</v>
+        <v>424</v>
       </c>
       <c r="D91" t="s">
-        <v>257</v>
+        <v>591</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -3008,13 +4344,13 @@
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>91</v>
+        <v>259</v>
       </c>
       <c r="C92" t="s">
-        <v>91</v>
+        <v>425</v>
       </c>
       <c r="D92" t="s">
-        <v>258</v>
+        <v>592</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -3022,13 +4358,13 @@
         <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>92</v>
+        <v>260</v>
       </c>
       <c r="C93" t="s">
-        <v>92</v>
+        <v>426</v>
       </c>
       <c r="D93" t="s">
-        <v>259</v>
+        <v>593</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -3036,13 +4372,13 @@
         <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>93</v>
+        <v>261</v>
       </c>
       <c r="C94" t="s">
-        <v>93</v>
+        <v>427</v>
       </c>
       <c r="D94" t="s">
-        <v>260</v>
+        <v>594</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -3050,13 +4386,13 @@
         <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>94</v>
+        <v>262</v>
       </c>
       <c r="C95" t="s">
-        <v>94</v>
+        <v>428</v>
       </c>
       <c r="D95" t="s">
-        <v>261</v>
+        <v>595</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -3064,13 +4400,13 @@
         <v>95</v>
       </c>
       <c r="B96" t="s">
-        <v>95</v>
+        <v>263</v>
       </c>
       <c r="C96" t="s">
-        <v>95</v>
+        <v>429</v>
       </c>
       <c r="D96" t="s">
-        <v>262</v>
+        <v>596</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -3078,13 +4414,13 @@
         <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>96</v>
+        <v>264</v>
       </c>
       <c r="C97" t="s">
-        <v>96</v>
+        <v>430</v>
       </c>
       <c r="D97" t="s">
-        <v>263</v>
+        <v>597</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -3092,13 +4428,13 @@
         <v>97</v>
       </c>
       <c r="B98" t="s">
-        <v>97</v>
+        <v>265</v>
       </c>
       <c r="C98" t="s">
-        <v>97</v>
+        <v>431</v>
       </c>
       <c r="D98" t="s">
-        <v>264</v>
+        <v>598</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -3106,13 +4442,13 @@
         <v>98</v>
       </c>
       <c r="B99" t="s">
-        <v>98</v>
+        <v>266</v>
       </c>
       <c r="C99" t="s">
-        <v>98</v>
+        <v>432</v>
       </c>
       <c r="D99" t="s">
-        <v>265</v>
+        <v>599</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -3120,13 +4456,13 @@
         <v>99</v>
       </c>
       <c r="B100" t="s">
-        <v>99</v>
+        <v>267</v>
       </c>
       <c r="C100" t="s">
-        <v>99</v>
+        <v>433</v>
       </c>
       <c r="D100" t="s">
-        <v>266</v>
+        <v>600</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -3134,13 +4470,13 @@
         <v>100</v>
       </c>
       <c r="B101" t="s">
-        <v>100</v>
+        <v>268</v>
       </c>
       <c r="C101" t="s">
-        <v>100</v>
+        <v>434</v>
       </c>
       <c r="D101" t="s">
-        <v>267</v>
+        <v>601</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -3148,13 +4484,13 @@
         <v>101</v>
       </c>
       <c r="B102" t="s">
-        <v>101</v>
+        <v>269</v>
       </c>
       <c r="C102" t="s">
-        <v>101</v>
+        <v>435</v>
       </c>
       <c r="D102" t="s">
-        <v>268</v>
+        <v>602</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -3162,13 +4498,13 @@
         <v>102</v>
       </c>
       <c r="B103" t="s">
-        <v>102</v>
+        <v>270</v>
       </c>
       <c r="C103" t="s">
-        <v>102</v>
+        <v>436</v>
       </c>
       <c r="D103" t="s">
-        <v>269</v>
+        <v>603</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -3176,13 +4512,13 @@
         <v>103</v>
       </c>
       <c r="B104" t="s">
-        <v>103</v>
+        <v>271</v>
       </c>
       <c r="C104" t="s">
-        <v>103</v>
+        <v>437</v>
       </c>
       <c r="D104" t="s">
-        <v>270</v>
+        <v>604</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -3190,13 +4526,13 @@
         <v>104</v>
       </c>
       <c r="B105" t="s">
-        <v>104</v>
+        <v>272</v>
       </c>
       <c r="C105" t="s">
-        <v>104</v>
+        <v>438</v>
       </c>
       <c r="D105" t="s">
-        <v>271</v>
+        <v>605</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -3204,13 +4540,13 @@
         <v>105</v>
       </c>
       <c r="B106" t="s">
-        <v>105</v>
+        <v>273</v>
       </c>
       <c r="C106" t="s">
-        <v>105</v>
+        <v>439</v>
       </c>
       <c r="D106" t="s">
-        <v>272</v>
+        <v>606</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -3218,13 +4554,13 @@
         <v>106</v>
       </c>
       <c r="B107" t="s">
-        <v>106</v>
+        <v>274</v>
       </c>
       <c r="C107" t="s">
-        <v>106</v>
+        <v>440</v>
       </c>
       <c r="D107" t="s">
-        <v>273</v>
+        <v>607</v>
       </c>
     </row>
     <row r="108" spans="1:4">
@@ -3232,13 +4568,13 @@
         <v>107</v>
       </c>
       <c r="B108" t="s">
-        <v>107</v>
+        <v>275</v>
       </c>
       <c r="C108" t="s">
-        <v>107</v>
+        <v>441</v>
       </c>
       <c r="D108" t="s">
-        <v>274</v>
+        <v>608</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -3246,13 +4582,13 @@
         <v>108</v>
       </c>
       <c r="B109" t="s">
-        <v>108</v>
+        <v>276</v>
       </c>
       <c r="C109" t="s">
-        <v>108</v>
+        <v>442</v>
       </c>
       <c r="D109" t="s">
-        <v>275</v>
+        <v>609</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -3260,13 +4596,13 @@
         <v>109</v>
       </c>
       <c r="B110" t="s">
-        <v>109</v>
+        <v>277</v>
       </c>
       <c r="C110" t="s">
-        <v>109</v>
+        <v>443</v>
       </c>
       <c r="D110" t="s">
-        <v>276</v>
+        <v>610</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -3274,13 +4610,13 @@
         <v>110</v>
       </c>
       <c r="B111" t="s">
-        <v>110</v>
+        <v>278</v>
       </c>
       <c r="C111" t="s">
-        <v>110</v>
+        <v>444</v>
       </c>
       <c r="D111" t="s">
-        <v>277</v>
+        <v>611</v>
       </c>
     </row>
     <row r="112" spans="1:4">
@@ -3288,13 +4624,13 @@
         <v>111</v>
       </c>
       <c r="B112" t="s">
-        <v>111</v>
+        <v>279</v>
       </c>
       <c r="C112" t="s">
-        <v>111</v>
+        <v>445</v>
       </c>
       <c r="D112" t="s">
-        <v>278</v>
+        <v>612</v>
       </c>
     </row>
     <row r="113" spans="1:4">
@@ -3302,13 +4638,13 @@
         <v>112</v>
       </c>
       <c r="B113" t="s">
-        <v>112</v>
+        <v>280</v>
       </c>
       <c r="C113" t="s">
-        <v>112</v>
+        <v>446</v>
       </c>
       <c r="D113" t="s">
-        <v>279</v>
+        <v>613</v>
       </c>
     </row>
     <row r="114" spans="1:4">
@@ -3316,13 +4652,13 @@
         <v>113</v>
       </c>
       <c r="B114" t="s">
-        <v>113</v>
+        <v>281</v>
       </c>
       <c r="C114" t="s">
-        <v>113</v>
+        <v>447</v>
       </c>
       <c r="D114" t="s">
-        <v>280</v>
+        <v>614</v>
       </c>
     </row>
     <row r="115" spans="1:4">
@@ -3330,13 +4666,13 @@
         <v>114</v>
       </c>
       <c r="B115" t="s">
-        <v>114</v>
+        <v>282</v>
       </c>
       <c r="C115" t="s">
-        <v>114</v>
+        <v>448</v>
       </c>
       <c r="D115" t="s">
-        <v>281</v>
+        <v>615</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -3344,13 +4680,13 @@
         <v>115</v>
       </c>
       <c r="B116" t="s">
-        <v>115</v>
+        <v>283</v>
       </c>
       <c r="C116" t="s">
-        <v>115</v>
+        <v>449</v>
       </c>
       <c r="D116" t="s">
-        <v>282</v>
+        <v>616</v>
       </c>
     </row>
     <row r="117" spans="1:4">
@@ -3358,13 +4694,13 @@
         <v>116</v>
       </c>
       <c r="B117" t="s">
-        <v>116</v>
+        <v>284</v>
       </c>
       <c r="C117" t="s">
-        <v>116</v>
+        <v>450</v>
       </c>
       <c r="D117" t="s">
-        <v>283</v>
+        <v>617</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -3372,13 +4708,13 @@
         <v>117</v>
       </c>
       <c r="B118" t="s">
-        <v>117</v>
+        <v>285</v>
       </c>
       <c r="C118" t="s">
-        <v>117</v>
+        <v>451</v>
       </c>
       <c r="D118" t="s">
-        <v>284</v>
+        <v>618</v>
       </c>
     </row>
     <row r="119" spans="1:4">
@@ -3386,13 +4722,13 @@
         <v>118</v>
       </c>
       <c r="B119" t="s">
-        <v>118</v>
+        <v>286</v>
       </c>
       <c r="C119" t="s">
-        <v>118</v>
+        <v>452</v>
       </c>
       <c r="D119" t="s">
-        <v>285</v>
+        <v>619</v>
       </c>
     </row>
     <row r="120" spans="1:4">
@@ -3400,13 +4736,13 @@
         <v>119</v>
       </c>
       <c r="B120" t="s">
-        <v>119</v>
+        <v>287</v>
       </c>
       <c r="C120" t="s">
-        <v>119</v>
+        <v>453</v>
       </c>
       <c r="D120" t="s">
-        <v>286</v>
+        <v>620</v>
       </c>
     </row>
     <row r="121" spans="1:4">
@@ -3414,13 +4750,13 @@
         <v>120</v>
       </c>
       <c r="B121" t="s">
-        <v>120</v>
+        <v>288</v>
       </c>
       <c r="C121" t="s">
-        <v>120</v>
+        <v>454</v>
       </c>
       <c r="D121" t="s">
-        <v>287</v>
+        <v>621</v>
       </c>
     </row>
     <row r="122" spans="1:4">
@@ -3428,13 +4764,13 @@
         <v>121</v>
       </c>
       <c r="B122" t="s">
-        <v>121</v>
+        <v>289</v>
       </c>
       <c r="C122" t="s">
-        <v>121</v>
+        <v>455</v>
       </c>
       <c r="D122" t="s">
-        <v>288</v>
+        <v>622</v>
       </c>
     </row>
     <row r="123" spans="1:4">
@@ -3442,13 +4778,13 @@
         <v>122</v>
       </c>
       <c r="B123" t="s">
-        <v>122</v>
+        <v>290</v>
       </c>
       <c r="C123" t="s">
-        <v>122</v>
+        <v>456</v>
       </c>
       <c r="D123" t="s">
-        <v>289</v>
+        <v>623</v>
       </c>
     </row>
     <row r="124" spans="1:4">
@@ -3456,13 +4792,13 @@
         <v>123</v>
       </c>
       <c r="B124" t="s">
-        <v>123</v>
+        <v>291</v>
       </c>
       <c r="C124" t="s">
-        <v>123</v>
+        <v>457</v>
       </c>
       <c r="D124" t="s">
-        <v>290</v>
+        <v>624</v>
       </c>
     </row>
     <row r="125" spans="1:4">
@@ -3470,13 +4806,13 @@
         <v>124</v>
       </c>
       <c r="B125" t="s">
-        <v>124</v>
+        <v>292</v>
       </c>
       <c r="C125" t="s">
-        <v>124</v>
+        <v>458</v>
       </c>
       <c r="D125" t="s">
-        <v>291</v>
+        <v>625</v>
       </c>
     </row>
     <row r="126" spans="1:4">
@@ -3484,13 +4820,13 @@
         <v>125</v>
       </c>
       <c r="B126" t="s">
-        <v>125</v>
+        <v>293</v>
       </c>
       <c r="C126" t="s">
-        <v>125</v>
+        <v>459</v>
       </c>
       <c r="D126" t="s">
-        <v>292</v>
+        <v>626</v>
       </c>
     </row>
     <row r="127" spans="1:4">
@@ -3498,13 +4834,13 @@
         <v>126</v>
       </c>
       <c r="B127" t="s">
-        <v>126</v>
+        <v>294</v>
       </c>
       <c r="C127" t="s">
-        <v>126</v>
+        <v>460</v>
       </c>
       <c r="D127" t="s">
-        <v>293</v>
+        <v>627</v>
       </c>
     </row>
     <row r="128" spans="1:4">
@@ -3512,13 +4848,13 @@
         <v>127</v>
       </c>
       <c r="B128" t="s">
-        <v>127</v>
+        <v>295</v>
       </c>
       <c r="C128" t="s">
-        <v>127</v>
+        <v>461</v>
       </c>
       <c r="D128" t="s">
-        <v>294</v>
+        <v>628</v>
       </c>
     </row>
     <row r="129" spans="1:4">
@@ -3526,13 +4862,13 @@
         <v>128</v>
       </c>
       <c r="B129" t="s">
-        <v>128</v>
+        <v>296</v>
       </c>
       <c r="C129" t="s">
-        <v>128</v>
+        <v>462</v>
       </c>
       <c r="D129" t="s">
-        <v>295</v>
+        <v>629</v>
       </c>
     </row>
     <row r="130" spans="1:4">
@@ -3540,13 +4876,13 @@
         <v>129</v>
       </c>
       <c r="B130" t="s">
-        <v>129</v>
+        <v>297</v>
       </c>
       <c r="C130" t="s">
-        <v>129</v>
+        <v>463</v>
       </c>
       <c r="D130" t="s">
-        <v>296</v>
+        <v>630</v>
       </c>
     </row>
     <row r="131" spans="1:4">
@@ -3554,13 +4890,13 @@
         <v>130</v>
       </c>
       <c r="B131" t="s">
-        <v>130</v>
+        <v>298</v>
       </c>
       <c r="C131" t="s">
-        <v>130</v>
+        <v>464</v>
       </c>
       <c r="D131" t="s">
-        <v>297</v>
+        <v>631</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -3568,13 +4904,13 @@
         <v>131</v>
       </c>
       <c r="B132" t="s">
-        <v>131</v>
+        <v>299</v>
       </c>
       <c r="C132" t="s">
-        <v>131</v>
+        <v>465</v>
       </c>
       <c r="D132" t="s">
-        <v>298</v>
+        <v>632</v>
       </c>
     </row>
     <row r="133" spans="1:4">
@@ -3582,13 +4918,13 @@
         <v>132</v>
       </c>
       <c r="B133" t="s">
-        <v>132</v>
+        <v>300</v>
       </c>
       <c r="C133" t="s">
-        <v>132</v>
+        <v>466</v>
       </c>
       <c r="D133" t="s">
-        <v>299</v>
+        <v>633</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -3596,13 +4932,13 @@
         <v>133</v>
       </c>
       <c r="B134" t="s">
-        <v>133</v>
+        <v>301</v>
       </c>
       <c r="C134" t="s">
-        <v>133</v>
+        <v>467</v>
       </c>
       <c r="D134" t="s">
-        <v>300</v>
+        <v>634</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -3610,13 +4946,13 @@
         <v>134</v>
       </c>
       <c r="B135" t="s">
-        <v>134</v>
+        <v>302</v>
       </c>
       <c r="C135" t="s">
-        <v>134</v>
+        <v>468</v>
       </c>
       <c r="D135" t="s">
-        <v>301</v>
+        <v>635</v>
       </c>
     </row>
     <row r="136" spans="1:4">
@@ -3624,13 +4960,13 @@
         <v>135</v>
       </c>
       <c r="B136" t="s">
-        <v>135</v>
+        <v>303</v>
       </c>
       <c r="C136" t="s">
-        <v>135</v>
+        <v>469</v>
       </c>
       <c r="D136" t="s">
-        <v>302</v>
+        <v>636</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -3638,13 +4974,13 @@
         <v>136</v>
       </c>
       <c r="B137" t="s">
-        <v>136</v>
+        <v>304</v>
       </c>
       <c r="C137" t="s">
-        <v>136</v>
+        <v>470</v>
       </c>
       <c r="D137" t="s">
-        <v>303</v>
+        <v>637</v>
       </c>
     </row>
     <row r="138" spans="1:4">
@@ -3652,13 +4988,13 @@
         <v>137</v>
       </c>
       <c r="B138" t="s">
-        <v>137</v>
+        <v>305</v>
       </c>
       <c r="C138" t="s">
-        <v>137</v>
+        <v>471</v>
       </c>
       <c r="D138" t="s">
-        <v>304</v>
+        <v>638</v>
       </c>
     </row>
     <row r="139" spans="1:4">
@@ -3666,13 +5002,13 @@
         <v>138</v>
       </c>
       <c r="B139" t="s">
-        <v>138</v>
+        <v>306</v>
       </c>
       <c r="C139" t="s">
-        <v>138</v>
+        <v>472</v>
       </c>
       <c r="D139" t="s">
-        <v>305</v>
+        <v>639</v>
       </c>
     </row>
     <row r="140" spans="1:4">
@@ -3680,13 +5016,13 @@
         <v>139</v>
       </c>
       <c r="B140" t="s">
-        <v>139</v>
+        <v>307</v>
       </c>
       <c r="C140" t="s">
-        <v>139</v>
+        <v>473</v>
       </c>
       <c r="D140" t="s">
-        <v>306</v>
+        <v>640</v>
       </c>
     </row>
     <row r="141" spans="1:4">
@@ -3694,13 +5030,13 @@
         <v>140</v>
       </c>
       <c r="B141" t="s">
-        <v>140</v>
+        <v>308</v>
       </c>
       <c r="C141" t="s">
-        <v>140</v>
+        <v>474</v>
       </c>
       <c r="D141" t="s">
-        <v>307</v>
+        <v>641</v>
       </c>
     </row>
     <row r="142" spans="1:4">
@@ -3708,13 +5044,13 @@
         <v>7</v>
       </c>
       <c r="B142" t="s">
-        <v>7</v>
+        <v>175</v>
       </c>
       <c r="C142" t="s">
-        <v>7</v>
+        <v>343</v>
       </c>
       <c r="D142" t="s">
-        <v>175</v>
+        <v>509</v>
       </c>
     </row>
     <row r="143" spans="1:4">
@@ -3722,13 +5058,13 @@
         <v>141</v>
       </c>
       <c r="B143" t="s">
-        <v>141</v>
+        <v>309</v>
       </c>
       <c r="C143" t="s">
-        <v>141</v>
+        <v>475</v>
       </c>
       <c r="D143" t="s">
-        <v>308</v>
+        <v>642</v>
       </c>
     </row>
     <row r="144" spans="1:4">
@@ -3736,13 +5072,13 @@
         <v>142</v>
       </c>
       <c r="B144" t="s">
-        <v>142</v>
+        <v>310</v>
       </c>
       <c r="C144" t="s">
-        <v>142</v>
+        <v>476</v>
       </c>
       <c r="D144" t="s">
-        <v>309</v>
+        <v>643</v>
       </c>
     </row>
     <row r="145" spans="1:4">
@@ -3750,13 +5086,13 @@
         <v>143</v>
       </c>
       <c r="B145" t="s">
-        <v>143</v>
+        <v>311</v>
       </c>
       <c r="C145" t="s">
-        <v>143</v>
+        <v>477</v>
       </c>
       <c r="D145" t="s">
-        <v>310</v>
+        <v>644</v>
       </c>
     </row>
     <row r="146" spans="1:4">
@@ -3764,13 +5100,13 @@
         <v>144</v>
       </c>
       <c r="B146" t="s">
-        <v>144</v>
+        <v>312</v>
       </c>
       <c r="C146" t="s">
-        <v>144</v>
+        <v>478</v>
       </c>
       <c r="D146" t="s">
-        <v>311</v>
+        <v>645</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -3778,13 +5114,13 @@
         <v>145</v>
       </c>
       <c r="B147" t="s">
-        <v>145</v>
+        <v>313</v>
       </c>
       <c r="C147" t="s">
-        <v>145</v>
+        <v>479</v>
       </c>
       <c r="D147" t="s">
-        <v>312</v>
+        <v>646</v>
       </c>
     </row>
     <row r="148" spans="1:4">
@@ -3792,13 +5128,13 @@
         <v>146</v>
       </c>
       <c r="B148" t="s">
-        <v>146</v>
+        <v>314</v>
       </c>
       <c r="C148" t="s">
-        <v>146</v>
+        <v>480</v>
       </c>
       <c r="D148" t="s">
-        <v>313</v>
+        <v>647</v>
       </c>
     </row>
     <row r="149" spans="1:4">
@@ -3806,13 +5142,13 @@
         <v>147</v>
       </c>
       <c r="B149" t="s">
-        <v>147</v>
+        <v>315</v>
       </c>
       <c r="C149" t="s">
-        <v>147</v>
+        <v>481</v>
       </c>
       <c r="D149" t="s">
-        <v>314</v>
+        <v>648</v>
       </c>
     </row>
     <row r="150" spans="1:4">
@@ -3820,13 +5156,13 @@
         <v>148</v>
       </c>
       <c r="B150" t="s">
-        <v>148</v>
+        <v>316</v>
       </c>
       <c r="C150" t="s">
-        <v>148</v>
+        <v>482</v>
       </c>
       <c r="D150" t="s">
-        <v>315</v>
+        <v>649</v>
       </c>
     </row>
     <row r="151" spans="1:4">
@@ -3834,13 +5170,13 @@
         <v>149</v>
       </c>
       <c r="B151" t="s">
-        <v>149</v>
+        <v>317</v>
       </c>
       <c r="C151" t="s">
-        <v>149</v>
+        <v>483</v>
       </c>
       <c r="D151" t="s">
-        <v>316</v>
+        <v>650</v>
       </c>
     </row>
     <row r="152" spans="1:4">
@@ -3848,13 +5184,13 @@
         <v>150</v>
       </c>
       <c r="B152" t="s">
-        <v>150</v>
+        <v>318</v>
       </c>
       <c r="C152" t="s">
-        <v>150</v>
+        <v>484</v>
       </c>
       <c r="D152" t="s">
-        <v>317</v>
+        <v>651</v>
       </c>
     </row>
     <row r="153" spans="1:4">
@@ -3862,13 +5198,13 @@
         <v>151</v>
       </c>
       <c r="B153" t="s">
-        <v>151</v>
+        <v>319</v>
       </c>
       <c r="C153" t="s">
-        <v>151</v>
+        <v>485</v>
       </c>
       <c r="D153" t="s">
-        <v>318</v>
+        <v>652</v>
       </c>
     </row>
     <row r="154" spans="1:4">
@@ -3876,13 +5212,13 @@
         <v>152</v>
       </c>
       <c r="B154" t="s">
-        <v>152</v>
+        <v>320</v>
       </c>
       <c r="C154" t="s">
-        <v>152</v>
+        <v>486</v>
       </c>
       <c r="D154" t="s">
-        <v>319</v>
+        <v>653</v>
       </c>
     </row>
     <row r="155" spans="1:4">
@@ -3890,13 +5226,13 @@
         <v>153</v>
       </c>
       <c r="B155" t="s">
-        <v>153</v>
+        <v>321</v>
       </c>
       <c r="C155" t="s">
-        <v>153</v>
+        <v>487</v>
       </c>
       <c r="D155" t="s">
-        <v>320</v>
+        <v>654</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -3904,13 +5240,13 @@
         <v>154</v>
       </c>
       <c r="B156" t="s">
-        <v>154</v>
+        <v>322</v>
       </c>
       <c r="C156" t="s">
-        <v>154</v>
+        <v>488</v>
       </c>
       <c r="D156" t="s">
-        <v>321</v>
+        <v>655</v>
       </c>
     </row>
     <row r="157" spans="1:4">
@@ -3918,13 +5254,13 @@
         <v>155</v>
       </c>
       <c r="B157" t="s">
-        <v>155</v>
+        <v>323</v>
       </c>
       <c r="C157" t="s">
-        <v>155</v>
+        <v>489</v>
       </c>
       <c r="D157" t="s">
-        <v>322</v>
+        <v>656</v>
       </c>
     </row>
     <row r="158" spans="1:4">
@@ -3932,13 +5268,13 @@
         <v>156</v>
       </c>
       <c r="B158" t="s">
-        <v>156</v>
+        <v>324</v>
       </c>
       <c r="C158" t="s">
-        <v>156</v>
+        <v>490</v>
       </c>
       <c r="D158" t="s">
-        <v>323</v>
+        <v>657</v>
       </c>
     </row>
     <row r="159" spans="1:4">
@@ -3946,13 +5282,13 @@
         <v>157</v>
       </c>
       <c r="B159" t="s">
-        <v>157</v>
+        <v>325</v>
       </c>
       <c r="C159" t="s">
-        <v>157</v>
+        <v>491</v>
       </c>
       <c r="D159" t="s">
-        <v>324</v>
+        <v>658</v>
       </c>
     </row>
     <row r="160" spans="1:4">
@@ -3960,13 +5296,13 @@
         <v>158</v>
       </c>
       <c r="B160" t="s">
-        <v>158</v>
+        <v>326</v>
       </c>
       <c r="C160" t="s">
-        <v>158</v>
+        <v>492</v>
       </c>
       <c r="D160" t="s">
-        <v>325</v>
+        <v>659</v>
       </c>
     </row>
     <row r="161" spans="1:4">
@@ -3974,13 +5310,13 @@
         <v>7</v>
       </c>
       <c r="B161" t="s">
-        <v>7</v>
+        <v>175</v>
       </c>
       <c r="C161" t="s">
-        <v>7</v>
+        <v>343</v>
       </c>
       <c r="D161" t="s">
-        <v>175</v>
+        <v>509</v>
       </c>
     </row>
     <row r="162" spans="1:4">
@@ -3988,13 +5324,13 @@
         <v>159</v>
       </c>
       <c r="B162" t="s">
-        <v>159</v>
+        <v>327</v>
       </c>
       <c r="C162" t="s">
-        <v>159</v>
+        <v>493</v>
       </c>
       <c r="D162" t="s">
-        <v>326</v>
+        <v>660</v>
       </c>
     </row>
     <row r="163" spans="1:4">
@@ -4002,13 +5338,13 @@
         <v>160</v>
       </c>
       <c r="B163" t="s">
-        <v>160</v>
+        <v>328</v>
       </c>
       <c r="C163" t="s">
-        <v>160</v>
+        <v>494</v>
       </c>
       <c r="D163" t="s">
-        <v>327</v>
+        <v>661</v>
       </c>
     </row>
     <row r="164" spans="1:4">
@@ -4016,13 +5352,13 @@
         <v>161</v>
       </c>
       <c r="B164" t="s">
-        <v>161</v>
+        <v>329</v>
       </c>
       <c r="C164" t="s">
-        <v>161</v>
+        <v>495</v>
       </c>
       <c r="D164" t="s">
-        <v>328</v>
+        <v>662</v>
       </c>
     </row>
     <row r="165" spans="1:4">
@@ -4030,13 +5366,13 @@
         <v>162</v>
       </c>
       <c r="B165" t="s">
-        <v>162</v>
+        <v>330</v>
       </c>
       <c r="C165" t="s">
-        <v>162</v>
+        <v>496</v>
       </c>
       <c r="D165" t="s">
-        <v>329</v>
+        <v>663</v>
       </c>
     </row>
     <row r="166" spans="1:4">
@@ -4044,13 +5380,13 @@
         <v>163</v>
       </c>
       <c r="B166" t="s">
-        <v>163</v>
+        <v>331</v>
       </c>
       <c r="C166" t="s">
-        <v>163</v>
+        <v>497</v>
       </c>
       <c r="D166" t="s">
-        <v>330</v>
+        <v>664</v>
       </c>
     </row>
     <row r="167" spans="1:4">
@@ -4058,13 +5394,13 @@
         <v>164</v>
       </c>
       <c r="B167" t="s">
-        <v>164</v>
+        <v>332</v>
       </c>
       <c r="C167" t="s">
-        <v>164</v>
+        <v>498</v>
       </c>
       <c r="D167" t="s">
-        <v>331</v>
+        <v>665</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -4072,13 +5408,13 @@
         <v>165</v>
       </c>
       <c r="B168" t="s">
-        <v>165</v>
+        <v>333</v>
       </c>
       <c r="C168" t="s">
-        <v>165</v>
+        <v>499</v>
       </c>
       <c r="D168" t="s">
-        <v>332</v>
+        <v>666</v>
       </c>
     </row>
     <row r="169" spans="1:4">
@@ -4086,13 +5422,13 @@
         <v>166</v>
       </c>
       <c r="B169" t="s">
-        <v>166</v>
+        <v>334</v>
       </c>
       <c r="C169" t="s">
-        <v>166</v>
+        <v>500</v>
       </c>
       <c r="D169" t="s">
-        <v>333</v>
+        <v>667</v>
       </c>
     </row>
     <row r="170" spans="1:4">
@@ -4100,13 +5436,13 @@
         <v>167</v>
       </c>
       <c r="B170" t="s">
-        <v>167</v>
+        <v>335</v>
       </c>
       <c r="C170" t="s">
-        <v>167</v>
+        <v>501</v>
       </c>
       <c r="D170" t="s">
-        <v>334</v>
+        <v>668</v>
       </c>
     </row>
     <row r="171" spans="1:4">
@@ -4114,13 +5450,13 @@
         <v>168</v>
       </c>
       <c r="B171" t="s">
-        <v>168</v>
+        <v>336</v>
       </c>
       <c r="C171" t="s">
-        <v>168</v>
+        <v>502</v>
       </c>
       <c r="D171" t="s">
-        <v>335</v>
+        <v>669</v>
       </c>
     </row>
     <row r="172" spans="1:4">
@@ -4128,13 +5464,13 @@
         <v>169</v>
       </c>
       <c r="B172" t="s">
-        <v>169</v>
+        <v>337</v>
       </c>
       <c r="C172" t="s">
-        <v>169</v>
+        <v>503</v>
       </c>
       <c r="D172" t="s">
-        <v>336</v>
+        <v>670</v>
       </c>
     </row>
     <row r="173" spans="1:4">
@@ -4142,13 +5478,13 @@
         <v>170</v>
       </c>
       <c r="B173" t="s">
-        <v>170</v>
+        <v>338</v>
       </c>
       <c r="C173" t="s">
-        <v>170</v>
+        <v>504</v>
       </c>
       <c r="D173" t="s">
-        <v>337</v>
+        <v>671</v>
       </c>
     </row>
     <row r="174" spans="1:4">
@@ -4156,13 +5492,13 @@
         <v>171</v>
       </c>
       <c r="B174" t="s">
-        <v>171</v>
+        <v>339</v>
       </c>
       <c r="C174" t="s">
-        <v>171</v>
+        <v>505</v>
       </c>
       <c r="D174" t="s">
-        <v>338</v>
+        <v>672</v>
       </c>
     </row>
   </sheetData>

--- a/story/Main Story and Others 主线剧情等/Operator Record 干员密录/story_bldsk_1_1.xlsx
+++ b/story/Main Story and Others 主线剧情等/Operator Record 干员密录/story_bldsk_1_1.xlsx
@@ -1372,7 +1372,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">10:32 PM \ Light drizzle
+    <t xml:space="preserve">10:32 P.M. \ Light drizzle
 </t>
   </si>
   <si>

--- a/story/Main Story and Others 主线剧情等/Operator Record 干员密录/story_bldsk_1_1.xlsx
+++ b/story/Main Story and Others 主线剧情等/Operator Record 干员密录/story_bldsk_1_1.xlsx
@@ -1040,7 +1040,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="？？？"]  ソーセージ？　ウルサスの特産品か？　話にはよく聞くが、なかなか美味いらしいじゃないか。今回の任務が終わって、また来る機会があれば味わってみよう。
+    <t xml:space="preserve">[name="？？？"]  ソーセージ？　ウルサスの特産品か？　ほう、気になるな。今回の任務が終わって、また来る機会があれば味わってみよう。
 </t>
   </si>
   <si>
@@ -1100,7 +1100,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="ワルファリン"]  よし、結果が出た。ウルサスのスラングでどう言うんだったか？　ふむ……この子は、野生の駄獣みたいに頑丈なのだ。
+    <t xml:space="preserve">[name="ワルファリン"]  よし、結果が出た。ウルサスのスラングでどう言うんだったか？　ふむ……この子は、野生の駄獣のように頑丈だ。
 </t>
   </si>
   <si>
@@ -1808,7 +1808,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Warfarin"]  The inhibitors that are out on the market can only alleviate symptoms. Even if I'm on the case, the most I can do is minimize the risk of the disease getting any worse.
+    <t xml:space="preserve">[name="Warfarin"]  The suppressants that are out on the market can only alleviate symptoms. Even if I'm on the case, the most I can do is minimize the risk of the disease getting any worse.
 </t>
   </si>
   <si>
